--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaoya/Documents/Work/资料/帮麦/公司资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F6E90A-A1EC-D94F-B2D7-915AD4E525A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FCFE2-F6FB-440A-A9C9-E85124746728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>服务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仓储系统（WarehouseManagement）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>节点类型（NodeType）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,15 +79,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三单申报微服务（DeclareService）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分布式事务协同处理器（TCCManager）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资源管理器（ResourceManager）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安三单申报微服务（DeclareService）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府三单申报微服务（DeclareService）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保税仓储系统（WarehouseManagement）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,22 +424,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -463,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -477,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -491,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -505,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -519,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -533,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -547,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,9 +565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -575,9 +579,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -589,9 +593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -603,9 +607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -615,6 +619,20 @@
       </c>
       <c r="D13" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作项目\微服务\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158FCFE2-F6FB-440A-A9C9-E85124746728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B698D5A-FB9C-43F5-86D4-BF554D340741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>服务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>保税仓储系统（WarehouseManagement）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安关务系统（XianCustomsAffairs）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,21 +627,35 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作项目\微服务\Framework\RelatedDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaoya/Documents/Work/资料/帮麦/公司资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B698D5A-FB9C-43F5-86D4-BF554D340741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2931C-A34E-BC41-ACB4-70FD5FA10393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>服务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>仓储系统（WarehouseManagement）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>节点类型（NodeType）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,27 +83,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>三单申报微服务（DeclareService）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分布式事务协同处理器（TCCManager）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资源管理器（ResourceManager）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安三单申报微服务（DeclareService）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天府三单申报微服务（DeclareService）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保税仓储系统（WarehouseManagement）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安关务系统（XianCustomsAffairs）</t>
+    <t>西安关务系统（TianfuCustomsAffairs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.169.10.214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好嗨购关务系统（HaoHaiGouCustomsAffairs）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,22 +428,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,13 +451,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -569,9 +569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -583,9 +583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -597,9 +597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -611,12 +611,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -625,9 +625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -637,20 +637,6 @@
       </c>
       <c r="D14" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,137 +1,446 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxiaoya/Documents/Work/资料/帮麦/公司资料/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2931C-A34E-BC41-ACB4-70FD5FA10393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>服务名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务器名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点类型（NodeType）</t>
+  </si>
+  <si>
+    <t>节点ID（NodeID）</t>
   </si>
   <si>
     <t>网关（Gateway）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>192.168.10.211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>认证中心（Authentication）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>库存微服务（MircoService.Warehouse）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户关系微服务（MircoService.CRM）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品微服务（MircoService.Commodity）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>订单微服务（MircoService.Order）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府关务系统（TianfuCustomsAffairs）</t>
   </si>
   <si>
     <t>福州关务系统（FuZhouCustomsAffairs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天府关务系统（TianfuCustomsAffairs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仓储系统（WarehouseManagement）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点类型（NodeType）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点ID（NodeID）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三单申报微服务（DeclareService）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分布式事务协同处理器（TCCManager）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好嗨购关务系统（HaoHaiGouCustomsAffairs）</t>
+  </si>
+  <si>
+    <t>192.169.10.214</t>
   </si>
   <si>
     <t>西安关务系统（TianfuCustomsAffairs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.169.10.214</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好嗨购关务系统（HaoHaiGouCustomsAffairs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付微服务（MircoService.PayMent）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,27 +448,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,7 +807,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -243,7 +842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -417,29 +1016,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B20" sqref="B16 B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -451,18 +1045,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -473,10 +1067,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -487,10 +1081,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -501,10 +1095,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -515,10 +1109,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -529,10 +1123,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -543,10 +1137,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -557,10 +1151,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -571,10 +1165,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -588,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -602,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -613,7 +1207,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -627,10 +1221,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
@@ -639,9 +1233,19 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ACD094-8D7E-4E2B-80F4-5C8A829B4CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF7FBD-8013-41A6-8019-610715E8990B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>服务名称</t>
   </si>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,9 +669,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF7FBD-8013-41A6-8019-610715E8990B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>服务名称</t>
   </si>
@@ -43,6 +37,15 @@
     <t>认证中心（Authentication）</t>
   </si>
   <si>
+    <t>库存微服务（MicroService.Warehouse）</t>
+  </si>
+  <si>
+    <t>推送微服务（MicroService.Publish）</t>
+  </si>
+  <si>
+    <t>商品微服务（MicroService.Commodity）</t>
+  </si>
+  <si>
     <t>订单微服务（MircoService.Order）</t>
   </si>
   <si>
@@ -68,42 +71,28 @@
   </si>
   <si>
     <t>西安关务系统（TianfuCustomsAffairs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天津关务系统（TianjinCustomsAffairs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.10.211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付微服务（MicroService.PayMent）</t>
   </si>
   <si>
     <t>监控微服务（MicroService.Monitor）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付微服务（MicroService.PayMent）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存微服务（MicroService.Warehouse）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户关系微服务（MicroService.CRM）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品微服务（MicroService.Commodity）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +101,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -121,20 +111,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -142,33 +454,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,19 +1024,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -447,7 +1045,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -475,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -489,9 +1087,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -503,13 +1101,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>3</v>
       </c>
@@ -517,9 +1113,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -531,9 +1127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -545,9 +1141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -559,9 +1155,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -573,9 +1169,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -587,9 +1183,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -601,9 +1197,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -615,12 +1211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -629,9 +1225,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -643,12 +1239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -657,24 +1253,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -684,8 +1280,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3BED26-FA6E-4FA8-A494-97EF6208C16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBC82F4-76B6-4A6A-B137-410E904E69C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="675" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>服务名称</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>天津关务系统（TianjinCustomsAffairs）</t>
-  </si>
-  <si>
-    <t>支付微服务（MicroService.PayMent）</t>
   </si>
   <si>
     <t>监控微服务（MicroService.Monitor）</t>
@@ -92,7 +89,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>监控微服务（MicroService.PriceComparison）</t>
+    <t>比价微服务（MicroService.PriceComparison）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算微服务（MicroService.Settlement）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付微服务（MicroService.PayMent）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +123,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +164,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,8 +670,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
+      <c r="A16" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -664,7 +683,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -677,22 +696,36 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
+      <c r="A18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
       </c>
       <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBC82F4-76B6-4A6A-B137-410E904E69C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA3FAB-FFA3-4E17-BCBA-547CCC89BDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="675" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>服务名称</t>
   </si>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>支付微服务（MicroService.PayMent）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单微服务（PHP）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,6 +727,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作资料\成都帮麦\代码\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBC82F4-76B6-4A6A-B137-410E904E69C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D6D77-947B-4851-9B28-5F42F00D92AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="675" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>服务名称</t>
   </si>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>支付微服务（MicroService.PayMent）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风瑞关务系统（FengruiCustomsAffairs）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,6 +727,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作资料\成都帮麦\代码\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA3FAB-FFA3-4E17-BCBA-547CCC89BDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4E750-B0CF-4902-83CF-831AE7881F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>服务名称</t>
   </si>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>订单微服务（PHP）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风瑞关务系统（FengruiCustomsAffairs）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,6 +739,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作资料\成都帮麦\代码\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4E750-B0CF-4902-83CF-831AE7881F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB4750-121A-4C15-B43C-07731645609A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>服务名称</t>
   </si>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>风瑞关务系统（FengruiCustomsAffairs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南麦帮关务系统（HainanCustomsAffairs）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,6 +757,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作资料\成都帮麦\代码\Framework\RelatedDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBB4750-121A-4C15-B43C-07731645609A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226A837-3A84-4344-B696-716DAF3B6920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>服务名称</t>
   </si>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>海南麦帮关务系统（HainanCustomsAffairs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchService（搜索引擎服务）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -129,12 +133,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,6 +777,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\麦邦\Framework\RelatedDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作资料\成都帮麦\代码\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226A837-3A84-4344-B696-716DAF3B6920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE90821-0B08-44E4-B09D-F200C2F9D712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>服务名称</t>
   </si>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>SearchService（搜索引擎服务）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.10.211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花之冠关务系统（HuaZhiGuanCustomsAffairs）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,7 +758,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -767,8 +775,8 @@
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
@@ -788,6 +796,20 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
         <v>0</v>
       </c>
     </row>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作资料\成都帮麦\代码\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE90821-0B08-44E4-B09D-F200C2F9D712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A4B70-B864-43A2-8C15-7D2C481AB855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>服务名称</t>
   </si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>花之冠关务系统（HuaZhiGuanCustomsAffairs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海狮关务系统（HaiShiCustomsAffairs）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -813,6 +817,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作资料\成都帮麦\代码\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204A4B70-B864-43A2-8C15-7D2C481AB855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9471D33-1AB2-476A-9800-9743737E0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>服务名称</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>海狮关务系统（HaiShiCustomsAffairs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京喜尚品关务系统（JingXiShangPinCustomsAffairs）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,6 +835,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RelatedDocument/现有系统统计表.xlsx
+++ b/RelatedDocument/现有系统统计表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作资料\成都帮麦\代码\Framework\RelatedDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9471D33-1AB2-476A-9800-9743737E0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF8F3BC-F566-4558-8741-D65FB752C3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>服务名称</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>京喜尚品关务系统（JingXiShangPinCustomsAffairs）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建龙猫关务系统（LongMaoCustomsAffairs）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -849,6 +853,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
